--- a/Covid-19 Resource Planning Data Input Template SIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\sirtool v4.0\sirtool\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26DE916-979F-4A84-AA7D-0B6256935F6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC7355-50A2-444F-85B6-FF9C848AB0EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
@@ -160,7 +160,7 @@
     <t>Number of patients currently infected with COVID-19 in the administrative unit</t>
   </si>
   <si>
-    <t>Mean_Recovery_Time</t>
+    <t>Mean_Recovery_Time_in_days</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6919,8 +6919,8 @@
   </sheetPr>
   <dimension ref="A1:N276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9502,6 +9502,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9724,36 +9739,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9776,9 +9765,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Covid-19 Resource Planning Data Input Template SIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SIR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\sirtool v4.0\sirtool\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC7355-50A2-444F-85B6-FF9C848AB0EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7315EAA7-F0ED-4C06-8299-C41F5D67ABC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
@@ -579,7 +579,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6920,7 +6920,7 @@
   <dimension ref="A1:N276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7016,7 +7016,7 @@
         <v>0.03</v>
       </c>
       <c r="K2" s="30">
-        <v>0.03</v>
+        <v>2</v>
       </c>
       <c r="L2" s="30">
         <v>0.7</v>
@@ -9511,12 +9511,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9739,6 +9733,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
   <ds:schemaRefs>
@@ -9748,23 +9748,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9781,4 +9764,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Covid-19 Resource Planning Data Input Template SIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SIR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7315EAA7-F0ED-4C06-8299-C41F5D67ABC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE3ED22-7AB4-41EA-B3C9-72649BD50E18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>District</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Mean_Recovery_Time_in_days</t>
+  </si>
+  <si>
+    <t>Multiple_Suspected_Positive</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -394,6 +397,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +585,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6920,7 +6926,7 @@
   <dimension ref="A1:N276"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6934,7 +6940,7 @@
     <col min="8" max="8" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
@@ -6972,7 +6978,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>9</v>
@@ -7015,7 +7021,7 @@
       <c r="J2" s="30">
         <v>0.03</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="31">
         <v>2</v>
       </c>
       <c r="L2" s="30">
@@ -7034,7 +7040,7 @@
       <c r="G3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="K3" s="32"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
     </row>
@@ -7043,7 +7049,7 @@
       <c r="G4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
     </row>
@@ -7052,7 +7058,7 @@
       <c r="G5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
     </row>
@@ -7061,7 +7067,7 @@
       <c r="G6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
     </row>
@@ -7070,7 +7076,7 @@
       <c r="G7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
     </row>
@@ -7079,7 +7085,7 @@
       <c r="G8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
     </row>
@@ -7088,7 +7094,7 @@
       <c r="G9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
     </row>
@@ -7097,7 +7103,7 @@
       <c r="G10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
     </row>
@@ -7106,7 +7112,7 @@
       <c r="G11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
     </row>
@@ -7115,7 +7121,7 @@
       <c r="G12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
     </row>
@@ -7124,7 +7130,7 @@
       <c r="G13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
     </row>
@@ -7133,7 +7139,7 @@
       <c r="G14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
     </row>
@@ -7142,7 +7148,7 @@
       <c r="G15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
@@ -7151,7 +7157,7 @@
       <c r="G16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
@@ -7160,7 +7166,7 @@
       <c r="G17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
     </row>
@@ -7169,7 +7175,7 @@
       <c r="G18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
     </row>
@@ -7178,7 +7184,7 @@
       <c r="G19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
     </row>
@@ -7187,7 +7193,7 @@
       <c r="G20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
     </row>
@@ -7196,7 +7202,7 @@
       <c r="G21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
     </row>
@@ -7205,7 +7211,7 @@
       <c r="G22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
     </row>
@@ -7214,7 +7220,7 @@
       <c r="G23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
     </row>
@@ -7223,7 +7229,7 @@
       <c r="G24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
     </row>
@@ -7232,7 +7238,7 @@
       <c r="G25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
@@ -7241,7 +7247,7 @@
       <c r="G26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
     </row>
@@ -7250,7 +7256,7 @@
       <c r="G27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
     </row>
@@ -7259,7 +7265,7 @@
       <c r="G28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
     </row>
@@ -7268,7 +7274,7 @@
       <c r="G29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="K29" s="32"/>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
     </row>
@@ -7277,7 +7283,7 @@
       <c r="G30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="K30" s="32"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
     </row>
@@ -7286,7 +7292,7 @@
       <c r="G31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="K31" s="32"/>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
     </row>
@@ -7295,7 +7301,7 @@
       <c r="G32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="K32" s="32"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
     </row>
@@ -7304,7 +7310,7 @@
       <c r="G33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="K33" s="32"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
     </row>
@@ -7313,7 +7319,7 @@
       <c r="G34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
     </row>
@@ -7322,7 +7328,7 @@
       <c r="G35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="K35" s="32"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
     </row>
@@ -7331,7 +7337,7 @@
       <c r="G36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
     </row>
@@ -7340,7 +7346,7 @@
       <c r="G37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
     </row>
@@ -7349,7 +7355,7 @@
       <c r="G38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="K38" s="32"/>
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
     </row>
@@ -7358,7 +7364,7 @@
       <c r="G39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="K39" s="32"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
     </row>
@@ -7367,7 +7373,7 @@
       <c r="G40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="K40" s="32"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
     </row>
@@ -7376,7 +7382,7 @@
       <c r="G41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="K41" s="32"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
     </row>
@@ -7385,7 +7391,7 @@
       <c r="G42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
+      <c r="K42" s="32"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
     </row>
@@ -7394,7 +7400,7 @@
       <c r="G43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
+      <c r="K43" s="32"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
     </row>
@@ -7403,7 +7409,7 @@
       <c r="G44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
+      <c r="K44" s="32"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
     </row>
@@ -7412,7 +7418,7 @@
       <c r="G45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="K45" s="32"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
     </row>
@@ -7421,7 +7427,7 @@
       <c r="G46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
+      <c r="K46" s="32"/>
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
     </row>
@@ -7430,7 +7436,7 @@
       <c r="G47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
+      <c r="K47" s="32"/>
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
     </row>
@@ -7439,7 +7445,7 @@
       <c r="G48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
+      <c r="K48" s="32"/>
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
     </row>
@@ -7448,7 +7454,7 @@
       <c r="G49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
+      <c r="K49" s="32"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
     </row>
@@ -7457,7 +7463,7 @@
       <c r="G50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
+      <c r="K50" s="32"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
     </row>
@@ -7466,7 +7472,7 @@
       <c r="G51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
+      <c r="K51" s="32"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
     </row>
@@ -7475,7 +7481,7 @@
       <c r="G52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
+      <c r="K52" s="32"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
     </row>
@@ -7484,7 +7490,7 @@
       <c r="G53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
+      <c r="K53" s="32"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
     </row>
@@ -7493,7 +7499,7 @@
       <c r="G54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
+      <c r="K54" s="32"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
     </row>
@@ -7502,7 +7508,7 @@
       <c r="G55" s="25"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
+      <c r="K55" s="32"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
     </row>
@@ -7511,7 +7517,7 @@
       <c r="G56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
+      <c r="K56" s="32"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
     </row>
@@ -7520,7 +7526,7 @@
       <c r="G57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
+      <c r="K57" s="32"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
     </row>
@@ -7529,7 +7535,7 @@
       <c r="G58" s="25"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
+      <c r="K58" s="32"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
     </row>
@@ -7538,7 +7544,7 @@
       <c r="G59" s="25"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
+      <c r="K59" s="32"/>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
     </row>
@@ -7547,7 +7553,7 @@
       <c r="G60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
+      <c r="K60" s="32"/>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
     </row>
@@ -7556,7 +7562,7 @@
       <c r="G61" s="25"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
+      <c r="K61" s="32"/>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
     </row>
@@ -7565,7 +7571,7 @@
       <c r="G62" s="25"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
+      <c r="K62" s="32"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
     </row>
@@ -7574,7 +7580,7 @@
       <c r="G63" s="25"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="K63" s="32"/>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
     </row>
@@ -7583,7 +7589,7 @@
       <c r="G64" s="25"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
+      <c r="K64" s="32"/>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
     </row>
@@ -7592,7 +7598,7 @@
       <c r="G65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
+      <c r="K65" s="32"/>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
     </row>
@@ -7601,7 +7607,7 @@
       <c r="G66" s="25"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
+      <c r="K66" s="32"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
     </row>
@@ -7610,7 +7616,7 @@
       <c r="G67" s="25"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="K67" s="32"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
     </row>
@@ -7619,7 +7625,7 @@
       <c r="G68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
+      <c r="K68" s="32"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
     </row>
@@ -7628,7 +7634,7 @@
       <c r="G69" s="25"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="K69" s="32"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
     </row>
@@ -7637,7 +7643,7 @@
       <c r="G70" s="25"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
+      <c r="K70" s="32"/>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
     </row>
@@ -7646,7 +7652,7 @@
       <c r="G71" s="25"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
+      <c r="K71" s="32"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
     </row>
@@ -7655,7 +7661,7 @@
       <c r="G72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="K72" s="32"/>
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
     </row>
@@ -7664,7 +7670,7 @@
       <c r="G73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
+      <c r="K73" s="32"/>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
     </row>
@@ -7673,7 +7679,7 @@
       <c r="G74" s="25"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="K74" s="32"/>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
     </row>
@@ -7682,7 +7688,7 @@
       <c r="G75" s="25"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
+      <c r="K75" s="32"/>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
     </row>
@@ -7691,7 +7697,7 @@
       <c r="G76" s="25"/>
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
+      <c r="K76" s="32"/>
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
     </row>
@@ -7700,7 +7706,7 @@
       <c r="G77" s="25"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
+      <c r="K77" s="32"/>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
     </row>
@@ -7709,7 +7715,7 @@
       <c r="G78" s="25"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
+      <c r="K78" s="32"/>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
     </row>
@@ -7718,7 +7724,7 @@
       <c r="G79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="K79" s="32"/>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
     </row>
@@ -7727,7 +7733,7 @@
       <c r="G80" s="25"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="K80" s="32"/>
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
     </row>
@@ -7736,7 +7742,7 @@
       <c r="G81" s="25"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
+      <c r="K81" s="32"/>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
     </row>
@@ -7745,7 +7751,7 @@
       <c r="G82" s="25"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
+      <c r="K82" s="32"/>
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
     </row>
@@ -7754,7 +7760,7 @@
       <c r="G83" s="25"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="K83" s="32"/>
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
     </row>
@@ -7763,7 +7769,7 @@
       <c r="G84" s="25"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
+      <c r="K84" s="32"/>
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
     </row>
@@ -7772,7 +7778,7 @@
       <c r="G85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
+      <c r="K85" s="32"/>
       <c r="L85" s="25"/>
       <c r="M85" s="25"/>
     </row>
@@ -7781,7 +7787,7 @@
       <c r="G86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
+      <c r="K86" s="32"/>
       <c r="L86" s="25"/>
       <c r="M86" s="25"/>
     </row>
@@ -7790,7 +7796,7 @@
       <c r="G87" s="25"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
+      <c r="K87" s="32"/>
       <c r="L87" s="25"/>
       <c r="M87" s="25"/>
     </row>
@@ -7799,7 +7805,7 @@
       <c r="G88" s="25"/>
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
+      <c r="K88" s="32"/>
       <c r="L88" s="25"/>
       <c r="M88" s="25"/>
     </row>
@@ -7808,7 +7814,7 @@
       <c r="G89" s="25"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
+      <c r="K89" s="32"/>
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
     </row>
@@ -7817,7 +7823,7 @@
       <c r="G90" s="25"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
+      <c r="K90" s="32"/>
       <c r="L90" s="25"/>
       <c r="M90" s="25"/>
     </row>
@@ -7826,7 +7832,7 @@
       <c r="G91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
+      <c r="K91" s="32"/>
       <c r="L91" s="25"/>
       <c r="M91" s="25"/>
     </row>
@@ -7835,7 +7841,7 @@
       <c r="G92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
+      <c r="K92" s="32"/>
       <c r="L92" s="25"/>
       <c r="M92" s="25"/>
     </row>
@@ -7844,7 +7850,7 @@
       <c r="G93" s="25"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
+      <c r="K93" s="32"/>
       <c r="L93" s="25"/>
       <c r="M93" s="25"/>
     </row>
@@ -7853,7 +7859,7 @@
       <c r="G94" s="25"/>
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
+      <c r="K94" s="32"/>
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
     </row>
@@ -7862,7 +7868,7 @@
       <c r="G95" s="25"/>
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
+      <c r="K95" s="32"/>
       <c r="L95" s="25"/>
       <c r="M95" s="25"/>
     </row>
@@ -7871,7 +7877,7 @@
       <c r="G96" s="25"/>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
+      <c r="K96" s="32"/>
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
     </row>
@@ -7880,7 +7886,7 @@
       <c r="G97" s="25"/>
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
+      <c r="K97" s="32"/>
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
     </row>
@@ -7889,7 +7895,7 @@
       <c r="G98" s="25"/>
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
+      <c r="K98" s="32"/>
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
     </row>
@@ -7898,7 +7904,7 @@
       <c r="G99" s="25"/>
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
+      <c r="K99" s="32"/>
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
     </row>
@@ -7907,7 +7913,7 @@
       <c r="G100" s="25"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
+      <c r="K100" s="32"/>
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
     </row>
@@ -7916,7 +7922,7 @@
       <c r="G101" s="25"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
-      <c r="K101" s="25"/>
+      <c r="K101" s="32"/>
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
     </row>
@@ -7925,7 +7931,7 @@
       <c r="G102" s="25"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
+      <c r="K102" s="32"/>
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
     </row>
@@ -7934,7 +7940,7 @@
       <c r="G103" s="25"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
+      <c r="K103" s="32"/>
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
     </row>
@@ -7943,7 +7949,7 @@
       <c r="G104" s="25"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
+      <c r="K104" s="32"/>
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
     </row>
@@ -7952,7 +7958,7 @@
       <c r="G105" s="25"/>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
+      <c r="K105" s="32"/>
       <c r="L105" s="25"/>
       <c r="M105" s="25"/>
     </row>
@@ -7961,7 +7967,7 @@
       <c r="G106" s="25"/>
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
+      <c r="K106" s="32"/>
       <c r="L106" s="25"/>
       <c r="M106" s="25"/>
     </row>
@@ -7970,7 +7976,7 @@
       <c r="G107" s="25"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
+      <c r="K107" s="32"/>
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
     </row>
@@ -7979,7 +7985,7 @@
       <c r="G108" s="25"/>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
+      <c r="K108" s="32"/>
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
     </row>
@@ -7988,7 +7994,7 @@
       <c r="G109" s="25"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
+      <c r="K109" s="32"/>
       <c r="L109" s="25"/>
       <c r="M109" s="25"/>
     </row>
@@ -7997,7 +8003,7 @@
       <c r="G110" s="25"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
+      <c r="K110" s="32"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
     </row>
@@ -8006,7 +8012,7 @@
       <c r="G111" s="25"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
+      <c r="K111" s="32"/>
       <c r="L111" s="25"/>
       <c r="M111" s="25"/>
     </row>
@@ -8015,7 +8021,7 @@
       <c r="G112" s="25"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
+      <c r="K112" s="32"/>
       <c r="L112" s="25"/>
       <c r="M112" s="25"/>
     </row>
@@ -8024,7 +8030,7 @@
       <c r="G113" s="25"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
+      <c r="K113" s="32"/>
       <c r="L113" s="25"/>
       <c r="M113" s="25"/>
     </row>
@@ -8033,7 +8039,7 @@
       <c r="G114" s="25"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
+      <c r="K114" s="32"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25"/>
     </row>
@@ -8042,7 +8048,7 @@
       <c r="G115" s="25"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
+      <c r="K115" s="32"/>
       <c r="L115" s="25"/>
       <c r="M115" s="25"/>
     </row>
@@ -8051,7 +8057,7 @@
       <c r="G116" s="25"/>
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
+      <c r="K116" s="32"/>
       <c r="L116" s="25"/>
       <c r="M116" s="25"/>
     </row>
@@ -8060,7 +8066,7 @@
       <c r="G117" s="25"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
+      <c r="K117" s="32"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
     </row>
@@ -8069,7 +8075,7 @@
       <c r="G118" s="25"/>
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
+      <c r="K118" s="32"/>
       <c r="L118" s="25"/>
       <c r="M118" s="25"/>
     </row>
@@ -8078,7 +8084,7 @@
       <c r="G119" s="25"/>
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
+      <c r="K119" s="32"/>
       <c r="L119" s="25"/>
       <c r="M119" s="25"/>
     </row>
@@ -8087,7 +8093,7 @@
       <c r="G120" s="25"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
+      <c r="K120" s="32"/>
       <c r="L120" s="25"/>
       <c r="M120" s="25"/>
     </row>
@@ -8096,7 +8102,7 @@
       <c r="G121" s="25"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
-      <c r="K121" s="25"/>
+      <c r="K121" s="32"/>
       <c r="L121" s="25"/>
       <c r="M121" s="25"/>
     </row>
@@ -8105,7 +8111,7 @@
       <c r="G122" s="25"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
+      <c r="K122" s="32"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
     </row>
@@ -8114,7 +8120,7 @@
       <c r="G123" s="25"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
+      <c r="K123" s="32"/>
       <c r="L123" s="25"/>
       <c r="M123" s="25"/>
     </row>
@@ -8123,7 +8129,7 @@
       <c r="G124" s="25"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
+      <c r="K124" s="32"/>
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
     </row>
@@ -8132,7 +8138,7 @@
       <c r="G125" s="25"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
+      <c r="K125" s="32"/>
       <c r="L125" s="25"/>
       <c r="M125" s="25"/>
     </row>
@@ -8141,7 +8147,7 @@
       <c r="G126" s="25"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
+      <c r="K126" s="32"/>
       <c r="L126" s="25"/>
       <c r="M126" s="25"/>
     </row>
@@ -8150,7 +8156,7 @@
       <c r="G127" s="25"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
+      <c r="K127" s="32"/>
       <c r="L127" s="25"/>
       <c r="M127" s="25"/>
     </row>
@@ -8159,7 +8165,7 @@
       <c r="G128" s="25"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
+      <c r="K128" s="32"/>
       <c r="L128" s="25"/>
       <c r="M128" s="25"/>
     </row>
@@ -8168,7 +8174,7 @@
       <c r="G129" s="25"/>
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
-      <c r="K129" s="25"/>
+      <c r="K129" s="32"/>
       <c r="L129" s="25"/>
       <c r="M129" s="25"/>
     </row>
@@ -8177,7 +8183,7 @@
       <c r="G130" s="25"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
+      <c r="K130" s="32"/>
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
     </row>
@@ -8186,7 +8192,7 @@
       <c r="G131" s="25"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
+      <c r="K131" s="32"/>
       <c r="L131" s="25"/>
       <c r="M131" s="25"/>
     </row>
@@ -8195,7 +8201,7 @@
       <c r="G132" s="25"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
-      <c r="K132" s="25"/>
+      <c r="K132" s="32"/>
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
     </row>
@@ -8204,7 +8210,7 @@
       <c r="G133" s="25"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
+      <c r="K133" s="32"/>
       <c r="L133" s="25"/>
       <c r="M133" s="25"/>
     </row>
@@ -8213,7 +8219,7 @@
       <c r="G134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
+      <c r="K134" s="32"/>
       <c r="L134" s="25"/>
       <c r="M134" s="25"/>
     </row>
@@ -8222,7 +8228,7 @@
       <c r="G135" s="25"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
-      <c r="K135" s="25"/>
+      <c r="K135" s="32"/>
       <c r="L135" s="25"/>
       <c r="M135" s="25"/>
     </row>
@@ -8231,7 +8237,7 @@
       <c r="G136" s="25"/>
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
-      <c r="K136" s="25"/>
+      <c r="K136" s="32"/>
       <c r="L136" s="25"/>
       <c r="M136" s="25"/>
     </row>
@@ -8240,7 +8246,7 @@
       <c r="G137" s="25"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
-      <c r="K137" s="25"/>
+      <c r="K137" s="32"/>
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
     </row>
@@ -8249,7 +8255,7 @@
       <c r="G138" s="25"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
-      <c r="K138" s="25"/>
+      <c r="K138" s="32"/>
       <c r="L138" s="25"/>
       <c r="M138" s="25"/>
     </row>
@@ -8258,7 +8264,7 @@
       <c r="G139" s="25"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
-      <c r="K139" s="25"/>
+      <c r="K139" s="32"/>
       <c r="L139" s="25"/>
       <c r="M139" s="25"/>
     </row>
@@ -8267,7 +8273,7 @@
       <c r="G140" s="25"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
+      <c r="K140" s="32"/>
       <c r="L140" s="25"/>
       <c r="M140" s="25"/>
     </row>
@@ -8276,7 +8282,7 @@
       <c r="G141" s="25"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
-      <c r="K141" s="25"/>
+      <c r="K141" s="32"/>
       <c r="L141" s="25"/>
       <c r="M141" s="25"/>
     </row>
@@ -8285,7 +8291,7 @@
       <c r="G142" s="25"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
-      <c r="K142" s="25"/>
+      <c r="K142" s="32"/>
       <c r="L142" s="25"/>
       <c r="M142" s="25"/>
     </row>
@@ -8294,7 +8300,7 @@
       <c r="G143" s="25"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
-      <c r="K143" s="25"/>
+      <c r="K143" s="32"/>
       <c r="L143" s="25"/>
       <c r="M143" s="25"/>
     </row>
@@ -8303,7 +8309,7 @@
       <c r="G144" s="25"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
+      <c r="K144" s="32"/>
       <c r="L144" s="25"/>
       <c r="M144" s="25"/>
     </row>
@@ -8312,7 +8318,7 @@
       <c r="G145" s="25"/>
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
-      <c r="K145" s="25"/>
+      <c r="K145" s="32"/>
       <c r="L145" s="25"/>
       <c r="M145" s="25"/>
     </row>
@@ -8321,7 +8327,7 @@
       <c r="G146" s="25"/>
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
-      <c r="K146" s="25"/>
+      <c r="K146" s="32"/>
       <c r="L146" s="25"/>
       <c r="M146" s="25"/>
     </row>
@@ -8330,7 +8336,7 @@
       <c r="G147" s="25"/>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
-      <c r="K147" s="25"/>
+      <c r="K147" s="32"/>
       <c r="L147" s="25"/>
       <c r="M147" s="25"/>
     </row>
@@ -8339,7 +8345,7 @@
       <c r="G148" s="25"/>
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
-      <c r="K148" s="25"/>
+      <c r="K148" s="32"/>
       <c r="L148" s="25"/>
       <c r="M148" s="25"/>
     </row>
@@ -8348,7 +8354,7 @@
       <c r="G149" s="25"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
-      <c r="K149" s="25"/>
+      <c r="K149" s="32"/>
       <c r="L149" s="25"/>
       <c r="M149" s="25"/>
     </row>
@@ -8357,7 +8363,7 @@
       <c r="G150" s="25"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
-      <c r="K150" s="25"/>
+      <c r="K150" s="32"/>
       <c r="L150" s="25"/>
       <c r="M150" s="25"/>
     </row>
@@ -8366,7 +8372,7 @@
       <c r="G151" s="25"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
-      <c r="K151" s="25"/>
+      <c r="K151" s="32"/>
       <c r="L151" s="25"/>
       <c r="M151" s="25"/>
     </row>
@@ -8375,7 +8381,7 @@
       <c r="G152" s="25"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
-      <c r="K152" s="25"/>
+      <c r="K152" s="32"/>
       <c r="L152" s="25"/>
       <c r="M152" s="25"/>
     </row>
@@ -8384,7 +8390,7 @@
       <c r="G153" s="25"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
-      <c r="K153" s="25"/>
+      <c r="K153" s="32"/>
       <c r="L153" s="25"/>
       <c r="M153" s="25"/>
     </row>
@@ -8393,7 +8399,7 @@
       <c r="G154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
-      <c r="K154" s="25"/>
+      <c r="K154" s="32"/>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
     </row>
@@ -8402,7 +8408,7 @@
       <c r="G155" s="25"/>
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
-      <c r="K155" s="25"/>
+      <c r="K155" s="32"/>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
     </row>
@@ -8411,7 +8417,7 @@
       <c r="G156" s="25"/>
       <c r="I156" s="25"/>
       <c r="J156" s="25"/>
-      <c r="K156" s="25"/>
+      <c r="K156" s="32"/>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
     </row>
@@ -8420,7 +8426,7 @@
       <c r="G157" s="25"/>
       <c r="I157" s="25"/>
       <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
+      <c r="K157" s="32"/>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
     </row>
@@ -8429,7 +8435,7 @@
       <c r="G158" s="25"/>
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
-      <c r="K158" s="25"/>
+      <c r="K158" s="32"/>
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
     </row>
@@ -8438,7 +8444,7 @@
       <c r="G159" s="25"/>
       <c r="I159" s="25"/>
       <c r="J159" s="25"/>
-      <c r="K159" s="25"/>
+      <c r="K159" s="32"/>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
     </row>
@@ -8447,7 +8453,7 @@
       <c r="G160" s="25"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
-      <c r="K160" s="25"/>
+      <c r="K160" s="32"/>
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
     </row>
@@ -8456,7 +8462,7 @@
       <c r="G161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
-      <c r="K161" s="25"/>
+      <c r="K161" s="32"/>
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
     </row>
@@ -8465,7 +8471,7 @@
       <c r="G162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
-      <c r="K162" s="25"/>
+      <c r="K162" s="32"/>
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
     </row>
@@ -8474,7 +8480,7 @@
       <c r="G163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
-      <c r="K163" s="25"/>
+      <c r="K163" s="32"/>
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
     </row>
@@ -8483,7 +8489,7 @@
       <c r="G164" s="25"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
-      <c r="K164" s="25"/>
+      <c r="K164" s="32"/>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
     </row>
@@ -8492,7 +8498,7 @@
       <c r="G165" s="25"/>
       <c r="I165" s="25"/>
       <c r="J165" s="25"/>
-      <c r="K165" s="25"/>
+      <c r="K165" s="32"/>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
     </row>
@@ -8501,7 +8507,7 @@
       <c r="G166" s="25"/>
       <c r="I166" s="25"/>
       <c r="J166" s="25"/>
-      <c r="K166" s="25"/>
+      <c r="K166" s="32"/>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
     </row>
@@ -8510,7 +8516,7 @@
       <c r="G167" s="25"/>
       <c r="I167" s="25"/>
       <c r="J167" s="25"/>
-      <c r="K167" s="25"/>
+      <c r="K167" s="32"/>
       <c r="L167" s="25"/>
       <c r="M167" s="25"/>
     </row>
@@ -8519,7 +8525,7 @@
       <c r="G168" s="25"/>
       <c r="I168" s="25"/>
       <c r="J168" s="25"/>
-      <c r="K168" s="25"/>
+      <c r="K168" s="32"/>
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
     </row>
@@ -8528,7 +8534,7 @@
       <c r="G169" s="25"/>
       <c r="I169" s="25"/>
       <c r="J169" s="25"/>
-      <c r="K169" s="25"/>
+      <c r="K169" s="32"/>
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
     </row>
@@ -8537,7 +8543,7 @@
       <c r="G170" s="25"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
-      <c r="K170" s="25"/>
+      <c r="K170" s="32"/>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
     </row>
@@ -8546,7 +8552,7 @@
       <c r="G171" s="25"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
-      <c r="K171" s="25"/>
+      <c r="K171" s="32"/>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
     </row>
@@ -8555,7 +8561,7 @@
       <c r="G172" s="25"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
-      <c r="K172" s="25"/>
+      <c r="K172" s="32"/>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
     </row>
@@ -8564,7 +8570,7 @@
       <c r="G173" s="25"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
-      <c r="K173" s="25"/>
+      <c r="K173" s="32"/>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
     </row>
@@ -8573,7 +8579,7 @@
       <c r="G174" s="25"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
-      <c r="K174" s="25"/>
+      <c r="K174" s="32"/>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
     </row>
@@ -8582,7 +8588,7 @@
       <c r="G175" s="25"/>
       <c r="I175" s="25"/>
       <c r="J175" s="25"/>
-      <c r="K175" s="25"/>
+      <c r="K175" s="32"/>
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
     </row>
@@ -8591,7 +8597,7 @@
       <c r="G176" s="25"/>
       <c r="I176" s="25"/>
       <c r="J176" s="25"/>
-      <c r="K176" s="25"/>
+      <c r="K176" s="32"/>
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
     </row>
@@ -8600,7 +8606,7 @@
       <c r="G177" s="25"/>
       <c r="I177" s="25"/>
       <c r="J177" s="25"/>
-      <c r="K177" s="25"/>
+      <c r="K177" s="32"/>
       <c r="L177" s="25"/>
       <c r="M177" s="25"/>
     </row>
@@ -8609,7 +8615,7 @@
       <c r="G178" s="25"/>
       <c r="I178" s="25"/>
       <c r="J178" s="25"/>
-      <c r="K178" s="25"/>
+      <c r="K178" s="32"/>
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
     </row>
@@ -8618,7 +8624,7 @@
       <c r="G179" s="25"/>
       <c r="I179" s="25"/>
       <c r="J179" s="25"/>
-      <c r="K179" s="25"/>
+      <c r="K179" s="32"/>
       <c r="L179" s="25"/>
       <c r="M179" s="25"/>
     </row>
@@ -8627,7 +8633,7 @@
       <c r="G180" s="25"/>
       <c r="I180" s="25"/>
       <c r="J180" s="25"/>
-      <c r="K180" s="25"/>
+      <c r="K180" s="32"/>
       <c r="L180" s="25"/>
       <c r="M180" s="25"/>
     </row>
@@ -8636,7 +8642,7 @@
       <c r="G181" s="25"/>
       <c r="I181" s="25"/>
       <c r="J181" s="25"/>
-      <c r="K181" s="25"/>
+      <c r="K181" s="32"/>
       <c r="L181" s="25"/>
       <c r="M181" s="25"/>
     </row>
@@ -8645,7 +8651,7 @@
       <c r="G182" s="25"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
-      <c r="K182" s="25"/>
+      <c r="K182" s="32"/>
       <c r="L182" s="25"/>
       <c r="M182" s="25"/>
     </row>
@@ -8654,7 +8660,7 @@
       <c r="G183" s="25"/>
       <c r="I183" s="25"/>
       <c r="J183" s="25"/>
-      <c r="K183" s="25"/>
+      <c r="K183" s="32"/>
       <c r="L183" s="25"/>
       <c r="M183" s="25"/>
     </row>
@@ -8663,7 +8669,7 @@
       <c r="G184" s="25"/>
       <c r="I184" s="25"/>
       <c r="J184" s="25"/>
-      <c r="K184" s="25"/>
+      <c r="K184" s="32"/>
       <c r="L184" s="25"/>
       <c r="M184" s="25"/>
     </row>
@@ -8672,7 +8678,7 @@
       <c r="G185" s="25"/>
       <c r="I185" s="25"/>
       <c r="J185" s="25"/>
-      <c r="K185" s="25"/>
+      <c r="K185" s="32"/>
       <c r="L185" s="25"/>
       <c r="M185" s="25"/>
     </row>
@@ -8681,7 +8687,7 @@
       <c r="G186" s="25"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
-      <c r="K186" s="25"/>
+      <c r="K186" s="32"/>
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
     </row>
@@ -8690,7 +8696,7 @@
       <c r="G187" s="25"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
-      <c r="K187" s="25"/>
+      <c r="K187" s="32"/>
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
     </row>
@@ -8699,7 +8705,7 @@
       <c r="G188" s="25"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
-      <c r="K188" s="25"/>
+      <c r="K188" s="32"/>
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
     </row>
@@ -8708,7 +8714,7 @@
       <c r="G189" s="25"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
-      <c r="K189" s="25"/>
+      <c r="K189" s="32"/>
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
     </row>
@@ -8717,7 +8723,7 @@
       <c r="G190" s="25"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
-      <c r="K190" s="25"/>
+      <c r="K190" s="32"/>
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
     </row>
@@ -8726,7 +8732,7 @@
       <c r="G191" s="25"/>
       <c r="I191" s="25"/>
       <c r="J191" s="25"/>
-      <c r="K191" s="25"/>
+      <c r="K191" s="32"/>
       <c r="L191" s="25"/>
       <c r="M191" s="25"/>
     </row>
@@ -8735,7 +8741,7 @@
       <c r="G192" s="25"/>
       <c r="I192" s="25"/>
       <c r="J192" s="25"/>
-      <c r="K192" s="25"/>
+      <c r="K192" s="32"/>
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
     </row>
@@ -8744,7 +8750,7 @@
       <c r="G193" s="25"/>
       <c r="I193" s="25"/>
       <c r="J193" s="25"/>
-      <c r="K193" s="25"/>
+      <c r="K193" s="32"/>
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
     </row>
@@ -8753,7 +8759,7 @@
       <c r="G194" s="25"/>
       <c r="I194" s="25"/>
       <c r="J194" s="25"/>
-      <c r="K194" s="25"/>
+      <c r="K194" s="32"/>
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
     </row>
@@ -8762,7 +8768,7 @@
       <c r="G195" s="25"/>
       <c r="I195" s="25"/>
       <c r="J195" s="25"/>
-      <c r="K195" s="25"/>
+      <c r="K195" s="32"/>
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
     </row>
@@ -8771,7 +8777,7 @@
       <c r="G196" s="25"/>
       <c r="I196" s="25"/>
       <c r="J196" s="25"/>
-      <c r="K196" s="25"/>
+      <c r="K196" s="32"/>
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
     </row>
@@ -8780,7 +8786,7 @@
       <c r="G197" s="25"/>
       <c r="I197" s="25"/>
       <c r="J197" s="25"/>
-      <c r="K197" s="25"/>
+      <c r="K197" s="32"/>
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
     </row>
@@ -8789,7 +8795,7 @@
       <c r="G198" s="25"/>
       <c r="I198" s="25"/>
       <c r="J198" s="25"/>
-      <c r="K198" s="25"/>
+      <c r="K198" s="32"/>
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
     </row>
@@ -8798,7 +8804,7 @@
       <c r="G199" s="25"/>
       <c r="I199" s="25"/>
       <c r="J199" s="25"/>
-      <c r="K199" s="25"/>
+      <c r="K199" s="32"/>
       <c r="L199" s="25"/>
       <c r="M199" s="25"/>
     </row>
@@ -8807,7 +8813,7 @@
       <c r="G200" s="25"/>
       <c r="I200" s="25"/>
       <c r="J200" s="25"/>
-      <c r="K200" s="25"/>
+      <c r="K200" s="32"/>
       <c r="L200" s="25"/>
       <c r="M200" s="25"/>
     </row>
@@ -8816,7 +8822,7 @@
       <c r="G201" s="25"/>
       <c r="I201" s="25"/>
       <c r="J201" s="25"/>
-      <c r="K201" s="25"/>
+      <c r="K201" s="32"/>
       <c r="L201" s="25"/>
       <c r="M201" s="25"/>
     </row>
@@ -8825,7 +8831,7 @@
       <c r="G202" s="25"/>
       <c r="I202" s="25"/>
       <c r="J202" s="25"/>
-      <c r="K202" s="25"/>
+      <c r="K202" s="32"/>
       <c r="L202" s="25"/>
       <c r="M202" s="25"/>
     </row>
@@ -8834,7 +8840,7 @@
       <c r="G203" s="25"/>
       <c r="I203" s="25"/>
       <c r="J203" s="25"/>
-      <c r="K203" s="25"/>
+      <c r="K203" s="32"/>
       <c r="L203" s="25"/>
       <c r="M203" s="25"/>
     </row>
@@ -8843,7 +8849,7 @@
       <c r="G204" s="25"/>
       <c r="I204" s="25"/>
       <c r="J204" s="25"/>
-      <c r="K204" s="25"/>
+      <c r="K204" s="32"/>
       <c r="L204" s="25"/>
       <c r="M204" s="25"/>
     </row>
@@ -8852,7 +8858,7 @@
       <c r="G205" s="25"/>
       <c r="I205" s="25"/>
       <c r="J205" s="25"/>
-      <c r="K205" s="25"/>
+      <c r="K205" s="32"/>
       <c r="L205" s="25"/>
       <c r="M205" s="25"/>
     </row>
@@ -8861,7 +8867,7 @@
       <c r="G206" s="25"/>
       <c r="I206" s="25"/>
       <c r="J206" s="25"/>
-      <c r="K206" s="25"/>
+      <c r="K206" s="32"/>
       <c r="L206" s="25"/>
       <c r="M206" s="25"/>
     </row>
@@ -8870,7 +8876,7 @@
       <c r="G207" s="25"/>
       <c r="I207" s="25"/>
       <c r="J207" s="25"/>
-      <c r="K207" s="25"/>
+      <c r="K207" s="32"/>
       <c r="L207" s="25"/>
       <c r="M207" s="25"/>
     </row>
@@ -8879,7 +8885,7 @@
       <c r="G208" s="25"/>
       <c r="I208" s="25"/>
       <c r="J208" s="25"/>
-      <c r="K208" s="25"/>
+      <c r="K208" s="32"/>
       <c r="L208" s="25"/>
       <c r="M208" s="25"/>
     </row>
@@ -8888,7 +8894,7 @@
       <c r="G209" s="25"/>
       <c r="I209" s="25"/>
       <c r="J209" s="25"/>
-      <c r="K209" s="25"/>
+      <c r="K209" s="32"/>
       <c r="L209" s="25"/>
       <c r="M209" s="25"/>
     </row>
@@ -8897,7 +8903,7 @@
       <c r="G210" s="25"/>
       <c r="I210" s="25"/>
       <c r="J210" s="25"/>
-      <c r="K210" s="25"/>
+      <c r="K210" s="32"/>
       <c r="L210" s="25"/>
       <c r="M210" s="25"/>
     </row>
@@ -8906,7 +8912,7 @@
       <c r="G211" s="25"/>
       <c r="I211" s="25"/>
       <c r="J211" s="25"/>
-      <c r="K211" s="25"/>
+      <c r="K211" s="32"/>
       <c r="L211" s="25"/>
       <c r="M211" s="25"/>
     </row>
@@ -8915,7 +8921,7 @@
       <c r="G212" s="25"/>
       <c r="I212" s="25"/>
       <c r="J212" s="25"/>
-      <c r="K212" s="25"/>
+      <c r="K212" s="32"/>
       <c r="L212" s="25"/>
       <c r="M212" s="25"/>
     </row>
@@ -8924,7 +8930,7 @@
       <c r="G213" s="25"/>
       <c r="I213" s="25"/>
       <c r="J213" s="25"/>
-      <c r="K213" s="25"/>
+      <c r="K213" s="32"/>
       <c r="L213" s="25"/>
       <c r="M213" s="25"/>
     </row>
@@ -8933,7 +8939,7 @@
       <c r="G214" s="25"/>
       <c r="I214" s="25"/>
       <c r="J214" s="25"/>
-      <c r="K214" s="25"/>
+      <c r="K214" s="32"/>
       <c r="L214" s="25"/>
       <c r="M214" s="25"/>
     </row>
@@ -8942,7 +8948,7 @@
       <c r="G215" s="25"/>
       <c r="I215" s="25"/>
       <c r="J215" s="25"/>
-      <c r="K215" s="25"/>
+      <c r="K215" s="32"/>
       <c r="L215" s="25"/>
       <c r="M215" s="25"/>
     </row>
@@ -8951,7 +8957,7 @@
       <c r="G216" s="25"/>
       <c r="I216" s="25"/>
       <c r="J216" s="25"/>
-      <c r="K216" s="25"/>
+      <c r="K216" s="32"/>
       <c r="L216" s="25"/>
       <c r="M216" s="25"/>
     </row>
@@ -8960,7 +8966,7 @@
       <c r="G217" s="25"/>
       <c r="I217" s="25"/>
       <c r="J217" s="25"/>
-      <c r="K217" s="25"/>
+      <c r="K217" s="32"/>
       <c r="L217" s="25"/>
       <c r="M217" s="25"/>
     </row>
@@ -8969,7 +8975,7 @@
       <c r="G218" s="25"/>
       <c r="I218" s="25"/>
       <c r="J218" s="25"/>
-      <c r="K218" s="25"/>
+      <c r="K218" s="32"/>
       <c r="L218" s="25"/>
       <c r="M218" s="25"/>
     </row>
@@ -8978,7 +8984,7 @@
       <c r="G219" s="25"/>
       <c r="I219" s="25"/>
       <c r="J219" s="25"/>
-      <c r="K219" s="25"/>
+      <c r="K219" s="32"/>
       <c r="L219" s="25"/>
       <c r="M219" s="25"/>
     </row>
@@ -8987,7 +8993,7 @@
       <c r="G220" s="25"/>
       <c r="I220" s="25"/>
       <c r="J220" s="25"/>
-      <c r="K220" s="25"/>
+      <c r="K220" s="32"/>
       <c r="L220" s="25"/>
       <c r="M220" s="25"/>
     </row>
@@ -8996,7 +9002,7 @@
       <c r="G221" s="25"/>
       <c r="I221" s="25"/>
       <c r="J221" s="25"/>
-      <c r="K221" s="25"/>
+      <c r="K221" s="32"/>
       <c r="L221" s="25"/>
       <c r="M221" s="25"/>
     </row>
@@ -9005,7 +9011,7 @@
       <c r="G222" s="25"/>
       <c r="I222" s="25"/>
       <c r="J222" s="25"/>
-      <c r="K222" s="25"/>
+      <c r="K222" s="32"/>
       <c r="L222" s="25"/>
       <c r="M222" s="25"/>
     </row>
@@ -9014,7 +9020,7 @@
       <c r="G223" s="25"/>
       <c r="I223" s="25"/>
       <c r="J223" s="25"/>
-      <c r="K223" s="25"/>
+      <c r="K223" s="32"/>
       <c r="L223" s="25"/>
       <c r="M223" s="25"/>
     </row>
@@ -9023,7 +9029,7 @@
       <c r="G224" s="25"/>
       <c r="I224" s="25"/>
       <c r="J224" s="25"/>
-      <c r="K224" s="25"/>
+      <c r="K224" s="32"/>
       <c r="L224" s="25"/>
       <c r="M224" s="25"/>
     </row>
@@ -9032,7 +9038,7 @@
       <c r="G225" s="25"/>
       <c r="I225" s="25"/>
       <c r="J225" s="25"/>
-      <c r="K225" s="25"/>
+      <c r="K225" s="32"/>
       <c r="L225" s="25"/>
       <c r="M225" s="25"/>
     </row>
@@ -9041,7 +9047,7 @@
       <c r="G226" s="25"/>
       <c r="I226" s="25"/>
       <c r="J226" s="25"/>
-      <c r="K226" s="25"/>
+      <c r="K226" s="32"/>
       <c r="L226" s="25"/>
       <c r="M226" s="25"/>
     </row>
@@ -9050,7 +9056,7 @@
       <c r="G227" s="25"/>
       <c r="I227" s="25"/>
       <c r="J227" s="25"/>
-      <c r="K227" s="25"/>
+      <c r="K227" s="32"/>
       <c r="L227" s="25"/>
       <c r="M227" s="25"/>
     </row>
@@ -9059,7 +9065,7 @@
       <c r="G228" s="25"/>
       <c r="I228" s="25"/>
       <c r="J228" s="25"/>
-      <c r="K228" s="25"/>
+      <c r="K228" s="32"/>
       <c r="L228" s="25"/>
       <c r="M228" s="25"/>
     </row>
@@ -9068,7 +9074,7 @@
       <c r="G229" s="25"/>
       <c r="I229" s="25"/>
       <c r="J229" s="25"/>
-      <c r="K229" s="25"/>
+      <c r="K229" s="32"/>
       <c r="L229" s="25"/>
       <c r="M229" s="25"/>
     </row>
@@ -9077,7 +9083,7 @@
       <c r="G230" s="25"/>
       <c r="I230" s="25"/>
       <c r="J230" s="25"/>
-      <c r="K230" s="25"/>
+      <c r="K230" s="32"/>
       <c r="L230" s="25"/>
       <c r="M230" s="25"/>
     </row>
@@ -9086,7 +9092,7 @@
       <c r="G231" s="25"/>
       <c r="I231" s="25"/>
       <c r="J231" s="25"/>
-      <c r="K231" s="25"/>
+      <c r="K231" s="32"/>
       <c r="L231" s="25"/>
       <c r="M231" s="25"/>
     </row>
@@ -9095,7 +9101,7 @@
       <c r="G232" s="25"/>
       <c r="I232" s="25"/>
       <c r="J232" s="25"/>
-      <c r="K232" s="25"/>
+      <c r="K232" s="32"/>
       <c r="L232" s="25"/>
       <c r="M232" s="25"/>
     </row>
@@ -9104,7 +9110,7 @@
       <c r="G233" s="25"/>
       <c r="I233" s="25"/>
       <c r="J233" s="25"/>
-      <c r="K233" s="25"/>
+      <c r="K233" s="32"/>
       <c r="L233" s="25"/>
       <c r="M233" s="25"/>
     </row>
@@ -9113,7 +9119,7 @@
       <c r="G234" s="25"/>
       <c r="I234" s="25"/>
       <c r="J234" s="25"/>
-      <c r="K234" s="25"/>
+      <c r="K234" s="32"/>
       <c r="L234" s="25"/>
       <c r="M234" s="25"/>
     </row>
@@ -9122,7 +9128,7 @@
       <c r="G235" s="25"/>
       <c r="I235" s="25"/>
       <c r="J235" s="25"/>
-      <c r="K235" s="25"/>
+      <c r="K235" s="32"/>
       <c r="L235" s="25"/>
       <c r="M235" s="25"/>
     </row>
@@ -9131,7 +9137,7 @@
       <c r="G236" s="25"/>
       <c r="I236" s="25"/>
       <c r="J236" s="25"/>
-      <c r="K236" s="25"/>
+      <c r="K236" s="32"/>
       <c r="L236" s="25"/>
       <c r="M236" s="25"/>
     </row>
@@ -9140,7 +9146,7 @@
       <c r="G237" s="25"/>
       <c r="I237" s="25"/>
       <c r="J237" s="25"/>
-      <c r="K237" s="25"/>
+      <c r="K237" s="32"/>
       <c r="L237" s="25"/>
       <c r="M237" s="25"/>
     </row>
@@ -9149,7 +9155,7 @@
       <c r="G238" s="25"/>
       <c r="I238" s="25"/>
       <c r="J238" s="25"/>
-      <c r="K238" s="25"/>
+      <c r="K238" s="32"/>
       <c r="L238" s="25"/>
       <c r="M238" s="25"/>
     </row>
@@ -9158,7 +9164,7 @@
       <c r="G239" s="25"/>
       <c r="I239" s="25"/>
       <c r="J239" s="25"/>
-      <c r="K239" s="25"/>
+      <c r="K239" s="32"/>
       <c r="L239" s="25"/>
       <c r="M239" s="25"/>
     </row>
@@ -9167,7 +9173,7 @@
       <c r="G240" s="25"/>
       <c r="I240" s="25"/>
       <c r="J240" s="25"/>
-      <c r="K240" s="25"/>
+      <c r="K240" s="32"/>
       <c r="L240" s="25"/>
       <c r="M240" s="25"/>
     </row>
@@ -9176,7 +9182,7 @@
       <c r="G241" s="25"/>
       <c r="I241" s="25"/>
       <c r="J241" s="25"/>
-      <c r="K241" s="25"/>
+      <c r="K241" s="32"/>
       <c r="L241" s="25"/>
       <c r="M241" s="25"/>
     </row>
@@ -9185,7 +9191,7 @@
       <c r="G242" s="25"/>
       <c r="I242" s="25"/>
       <c r="J242" s="25"/>
-      <c r="K242" s="25"/>
+      <c r="K242" s="32"/>
       <c r="L242" s="25"/>
       <c r="M242" s="25"/>
     </row>
@@ -9194,7 +9200,7 @@
       <c r="G243" s="25"/>
       <c r="I243" s="25"/>
       <c r="J243" s="25"/>
-      <c r="K243" s="25"/>
+      <c r="K243" s="32"/>
       <c r="L243" s="25"/>
       <c r="M243" s="25"/>
     </row>
@@ -9203,7 +9209,7 @@
       <c r="G244" s="25"/>
       <c r="I244" s="25"/>
       <c r="J244" s="25"/>
-      <c r="K244" s="25"/>
+      <c r="K244" s="32"/>
       <c r="L244" s="25"/>
       <c r="M244" s="25"/>
     </row>
@@ -9212,7 +9218,7 @@
       <c r="G245" s="25"/>
       <c r="I245" s="25"/>
       <c r="J245" s="25"/>
-      <c r="K245" s="25"/>
+      <c r="K245" s="32"/>
       <c r="L245" s="25"/>
       <c r="M245" s="25"/>
     </row>
@@ -9221,7 +9227,7 @@
       <c r="G246" s="25"/>
       <c r="I246" s="25"/>
       <c r="J246" s="25"/>
-      <c r="K246" s="25"/>
+      <c r="K246" s="32"/>
       <c r="L246" s="25"/>
       <c r="M246" s="25"/>
     </row>
@@ -9230,7 +9236,7 @@
       <c r="G247" s="25"/>
       <c r="I247" s="25"/>
       <c r="J247" s="25"/>
-      <c r="K247" s="25"/>
+      <c r="K247" s="32"/>
       <c r="L247" s="25"/>
       <c r="M247" s="25"/>
     </row>
@@ -9239,7 +9245,7 @@
       <c r="G248" s="25"/>
       <c r="I248" s="25"/>
       <c r="J248" s="25"/>
-      <c r="K248" s="25"/>
+      <c r="K248" s="32"/>
       <c r="L248" s="25"/>
       <c r="M248" s="25"/>
     </row>
@@ -9248,7 +9254,7 @@
       <c r="G249" s="25"/>
       <c r="I249" s="25"/>
       <c r="J249" s="25"/>
-      <c r="K249" s="25"/>
+      <c r="K249" s="32"/>
       <c r="L249" s="25"/>
       <c r="M249" s="25"/>
     </row>
@@ -9257,7 +9263,7 @@
       <c r="G250" s="25"/>
       <c r="I250" s="25"/>
       <c r="J250" s="25"/>
-      <c r="K250" s="25"/>
+      <c r="K250" s="32"/>
       <c r="L250" s="25"/>
       <c r="M250" s="25"/>
     </row>
@@ -9266,7 +9272,7 @@
       <c r="G251" s="25"/>
       <c r="I251" s="25"/>
       <c r="J251" s="25"/>
-      <c r="K251" s="25"/>
+      <c r="K251" s="32"/>
       <c r="L251" s="25"/>
       <c r="M251" s="25"/>
     </row>
@@ -9275,7 +9281,7 @@
       <c r="G252" s="25"/>
       <c r="I252" s="25"/>
       <c r="J252" s="25"/>
-      <c r="K252" s="25"/>
+      <c r="K252" s="32"/>
       <c r="L252" s="25"/>
       <c r="M252" s="25"/>
     </row>
@@ -9284,7 +9290,7 @@
       <c r="G253" s="25"/>
       <c r="I253" s="25"/>
       <c r="J253" s="25"/>
-      <c r="K253" s="25"/>
+      <c r="K253" s="32"/>
       <c r="L253" s="25"/>
       <c r="M253" s="25"/>
     </row>
@@ -9293,7 +9299,7 @@
       <c r="G254" s="25"/>
       <c r="I254" s="25"/>
       <c r="J254" s="25"/>
-      <c r="K254" s="25"/>
+      <c r="K254" s="32"/>
       <c r="L254" s="25"/>
       <c r="M254" s="25"/>
     </row>
@@ -9302,7 +9308,7 @@
       <c r="G255" s="25"/>
       <c r="I255" s="25"/>
       <c r="J255" s="25"/>
-      <c r="K255" s="25"/>
+      <c r="K255" s="32"/>
       <c r="L255" s="25"/>
       <c r="M255" s="25"/>
     </row>
@@ -9311,7 +9317,7 @@
       <c r="G256" s="25"/>
       <c r="I256" s="25"/>
       <c r="J256" s="25"/>
-      <c r="K256" s="25"/>
+      <c r="K256" s="32"/>
       <c r="L256" s="25"/>
       <c r="M256" s="25"/>
     </row>
@@ -9320,7 +9326,7 @@
       <c r="G257" s="25"/>
       <c r="I257" s="25"/>
       <c r="J257" s="25"/>
-      <c r="K257" s="25"/>
+      <c r="K257" s="32"/>
       <c r="L257" s="25"/>
       <c r="M257" s="25"/>
     </row>
@@ -9329,7 +9335,7 @@
       <c r="G258" s="25"/>
       <c r="I258" s="25"/>
       <c r="J258" s="25"/>
-      <c r="K258" s="25"/>
+      <c r="K258" s="32"/>
       <c r="L258" s="25"/>
       <c r="M258" s="25"/>
     </row>
@@ -9338,7 +9344,7 @@
       <c r="G259" s="25"/>
       <c r="I259" s="25"/>
       <c r="J259" s="25"/>
-      <c r="K259" s="25"/>
+      <c r="K259" s="32"/>
       <c r="L259" s="25"/>
       <c r="M259" s="25"/>
     </row>
@@ -9347,7 +9353,7 @@
       <c r="G260" s="25"/>
       <c r="I260" s="25"/>
       <c r="J260" s="25"/>
-      <c r="K260" s="25"/>
+      <c r="K260" s="32"/>
       <c r="L260" s="25"/>
       <c r="M260" s="25"/>
     </row>
@@ -9356,7 +9362,7 @@
       <c r="G261" s="25"/>
       <c r="I261" s="25"/>
       <c r="J261" s="25"/>
-      <c r="K261" s="25"/>
+      <c r="K261" s="32"/>
       <c r="L261" s="25"/>
       <c r="M261" s="25"/>
     </row>
@@ -9365,7 +9371,7 @@
       <c r="G262" s="25"/>
       <c r="I262" s="25"/>
       <c r="J262" s="25"/>
-      <c r="K262" s="25"/>
+      <c r="K262" s="32"/>
       <c r="L262" s="25"/>
       <c r="M262" s="25"/>
     </row>
@@ -9374,7 +9380,7 @@
       <c r="G263" s="25"/>
       <c r="I263" s="25"/>
       <c r="J263" s="25"/>
-      <c r="K263" s="25"/>
+      <c r="K263" s="32"/>
       <c r="L263" s="25"/>
       <c r="M263" s="25"/>
     </row>
@@ -9383,7 +9389,7 @@
       <c r="G264" s="25"/>
       <c r="I264" s="25"/>
       <c r="J264" s="25"/>
-      <c r="K264" s="25"/>
+      <c r="K264" s="32"/>
       <c r="L264" s="25"/>
       <c r="M264" s="25"/>
     </row>
@@ -9392,7 +9398,7 @@
       <c r="G265" s="25"/>
       <c r="I265" s="25"/>
       <c r="J265" s="25"/>
-      <c r="K265" s="25"/>
+      <c r="K265" s="32"/>
       <c r="L265" s="25"/>
       <c r="M265" s="25"/>
     </row>
@@ -9401,7 +9407,7 @@
       <c r="G266" s="25"/>
       <c r="I266" s="25"/>
       <c r="J266" s="25"/>
-      <c r="K266" s="25"/>
+      <c r="K266" s="32"/>
       <c r="L266" s="25"/>
       <c r="M266" s="25"/>
     </row>
@@ -9410,7 +9416,7 @@
       <c r="G267" s="25"/>
       <c r="I267" s="25"/>
       <c r="J267" s="25"/>
-      <c r="K267" s="25"/>
+      <c r="K267" s="32"/>
       <c r="L267" s="25"/>
       <c r="M267" s="25"/>
     </row>
@@ -9419,7 +9425,7 @@
       <c r="G268" s="25"/>
       <c r="I268" s="25"/>
       <c r="J268" s="25"/>
-      <c r="K268" s="25"/>
+      <c r="K268" s="32"/>
       <c r="L268" s="25"/>
       <c r="M268" s="25"/>
     </row>
@@ -9428,7 +9434,7 @@
       <c r="G269" s="25"/>
       <c r="I269" s="25"/>
       <c r="J269" s="25"/>
-      <c r="K269" s="25"/>
+      <c r="K269" s="32"/>
       <c r="L269" s="25"/>
       <c r="M269" s="25"/>
     </row>
@@ -9437,7 +9443,7 @@
       <c r="G270" s="25"/>
       <c r="I270" s="25"/>
       <c r="J270" s="25"/>
-      <c r="K270" s="25"/>
+      <c r="K270" s="32"/>
       <c r="L270" s="25"/>
       <c r="M270" s="25"/>
     </row>
@@ -9446,7 +9452,7 @@
       <c r="G271" s="25"/>
       <c r="I271" s="25"/>
       <c r="J271" s="25"/>
-      <c r="K271" s="25"/>
+      <c r="K271" s="32"/>
       <c r="L271" s="25"/>
       <c r="M271" s="25"/>
     </row>
@@ -9455,7 +9461,7 @@
       <c r="G272" s="25"/>
       <c r="I272" s="25"/>
       <c r="J272" s="25"/>
-      <c r="K272" s="25"/>
+      <c r="K272" s="32"/>
       <c r="L272" s="25"/>
       <c r="M272" s="25"/>
     </row>
@@ -9464,7 +9470,7 @@
       <c r="G273" s="25"/>
       <c r="I273" s="25"/>
       <c r="J273" s="25"/>
-      <c r="K273" s="25"/>
+      <c r="K273" s="32"/>
       <c r="L273" s="25"/>
       <c r="M273" s="25"/>
     </row>
@@ -9473,7 +9479,7 @@
       <c r="G274" s="25"/>
       <c r="I274" s="25"/>
       <c r="J274" s="25"/>
-      <c r="K274" s="25"/>
+      <c r="K274" s="32"/>
       <c r="L274" s="25"/>
       <c r="M274" s="25"/>
     </row>
@@ -9482,7 +9488,7 @@
       <c r="G275" s="25"/>
       <c r="I275" s="25"/>
       <c r="J275" s="25"/>
-      <c r="K275" s="25"/>
+      <c r="K275" s="32"/>
       <c r="L275" s="25"/>
       <c r="M275" s="25"/>
     </row>
@@ -9491,7 +9497,7 @@
       <c r="G276" s="25"/>
       <c r="I276" s="25"/>
       <c r="J276" s="25"/>
-      <c r="K276" s="25"/>
+      <c r="K276" s="32"/>
       <c r="L276" s="25"/>
       <c r="M276" s="25"/>
     </row>
@@ -9502,15 +9508,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9733,6 +9730,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9740,14 +9746,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9762,6 +9760,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Covid-19 Resource Planning Data Input Template SIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SIR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE3ED22-7AB4-41EA-B3C9-72649BD50E18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B0044A-3C8A-471C-93BD-1D0686771D06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Guide" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>District</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Doubling_time_in_days</t>
-  </si>
-  <si>
-    <t>Infectious_Days</t>
   </si>
   <si>
     <t>Fatality_Rate</t>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>Critical_Cases_Rate</t>
-  </si>
-  <si>
-    <t>Percentage_Suspected_Positive</t>
   </si>
   <si>
     <t>Percentage_Hospital_Quarantined</t>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Sample Value</t>
-  </si>
-  <si>
-    <t>Percentage of deaths from all people infected</t>
   </si>
   <si>
     <t>Percentage of suspected positive people that need to be quarantined in hospitals</t>
@@ -127,13 +118,7 @@
     <t>Number of days required for number of infected individuals to double</t>
   </si>
   <si>
-    <t>The number of days in which an individual can infect others (regardless of whether the infected person symptomatic or asymptomatic)</t>
-  </si>
-  <si>
     <t>Percentage of critical cases in the total infected cases</t>
-  </si>
-  <si>
-    <t>Percentage of people suspected positive with COVID-19</t>
   </si>
   <si>
     <t xml:space="preserve">The tab "SIR Model Inputs" is to be updated by the user. </t>
@@ -148,22 +133,31 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Number of patients currently deceased due to COVID-19 in the administrative unit</t>
-  </si>
-  <si>
-    <t>Number of patients currently recovered from COVID-19 in the administrative unit</t>
-  </si>
-  <si>
     <t>Currently_infected_COVID_19_Patients</t>
-  </si>
-  <si>
-    <t>Number of patients currently infected with COVID-19 in the administrative unit</t>
   </si>
   <si>
     <t>Mean_Recovery_Time_in_days</t>
   </si>
   <si>
     <t>Multiple_Suspected_Positive</t>
+  </si>
+  <si>
+    <t>The average number of days required for an individual to recover and can also infect others (regardless of whether the infected person symptomatic or asymptomatic)</t>
+  </si>
+  <si>
+    <t>Percentage of deaths from all confirmed cases</t>
+  </si>
+  <si>
+    <t>Number of patients currently infected with COVID-19 in the administrative unit (Active cases)</t>
+  </si>
+  <si>
+    <t>Number of patients currently recovered from COVID-19 in the administrative unit (Recovered cases)</t>
+  </si>
+  <si>
+    <t>Number of patients currently deceased due to COVID-19 in the administrative unit (Deceased cases)</t>
+  </si>
+  <si>
+    <t>Mutiple of active cases who are suspected positive</t>
   </si>
 </sst>
 </file>
@@ -345,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -400,6 +394,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +582,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
+              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6623,8 +6620,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6655,55 +6652,55 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -6712,13 +6709,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -6727,10 +6724,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="20">
         <v>100000</v>
@@ -6739,13 +6736,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="21">
         <v>50</v>
@@ -6754,13 +6751,13 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="21">
         <v>10</v>
@@ -6769,13 +6766,13 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" s="21">
         <v>2</v>
@@ -6787,10 +6784,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" s="21">
         <v>4</v>
@@ -6798,13 +6795,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="22">
         <v>0.3</v>
@@ -6812,13 +6809,13 @@
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="21">
         <v>14</v>
@@ -6826,13 +6823,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="22">
         <v>0.02</v>
@@ -6840,13 +6837,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E26" s="22">
         <v>0.03</v>
@@ -6854,27 +6851,27 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
       </c>
-      <c r="E27" s="22">
-        <v>0.03</v>
+      <c r="E27" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E28" s="22">
         <v>0.7</v>
@@ -6882,13 +6879,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E29" s="22">
         <v>0.3</v>
@@ -6896,13 +6893,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" s="23">
         <v>100</v>
@@ -6925,8 +6922,8 @@
   </sheetPr>
   <dimension ref="A1:N276"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6954,45 +6951,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>42</v>
+      <c r="K1" s="26" t="s">
+        <v>35</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="L1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="28">
         <v>100000</v>
@@ -9731,18 +9728,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9765,14 +9762,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9787,4 +9776,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Covid-19 Resource Planning Data Input Template SIR.xlsx
+++ b/Covid-19 Resource Planning Data Input Template SIR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B0044A-3C8A-471C-93BD-1D0686771D06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759A8797-0383-407A-B377-05E918980143}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Guide" sheetId="3" r:id="rId1"/>
@@ -582,7 +582,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6620,7 +6620,7 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6922,8 +6922,8 @@
   </sheetPr>
   <dimension ref="A1:N276"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9728,18 +9728,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9762,6 +9762,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -9776,12 +9784,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>